--- a/data/Data Dictionary.xlsx
+++ b/data/Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Documents\personal projects\jds-mma-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9337D0CD-AF28-4E1B-BCD0-BF5583A875BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F669F064-BDBD-4819-8275-6E7AC9CC0519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Overview" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="588">
   <si>
     <t>Name</t>
   </si>
@@ -1797,6 +1797,9 @@
   </si>
   <si>
     <t>Fighter's change in weight in pounds</t>
+  </si>
+  <si>
+    <t>Sherdog</t>
   </si>
 </sst>
 </file>
@@ -1849,15 +1852,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2148,7 +2149,9 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2602,7 +2605,7 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>587</v>
       </c>
       <c r="C41" t="s">
         <v>79</v>
@@ -2613,7 +2616,7 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>587</v>
       </c>
       <c r="C42" t="s">
         <v>76</v>
@@ -2624,20 +2627,20 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>587</v>
       </c>
       <c r="C43" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3048,7 +3051,7 @@
       <c r="B16" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>109</v>
       </c>
       <c r="D16" t="s">
@@ -3062,7 +3065,7 @@
       <c r="B17" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>108</v>
       </c>
       <c r="D17" t="s">
@@ -3076,7 +3079,7 @@
       <c r="B18" t="s">
         <v>263</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>175</v>
       </c>
       <c r="D18" t="s">
@@ -3090,7 +3093,7 @@
       <c r="B19" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>108</v>
       </c>
       <c r="D19" t="s">
@@ -3104,7 +3107,7 @@
       <c r="B20" t="s">
         <v>363</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>108</v>
       </c>
       <c r="D20" t="s">
@@ -3118,7 +3121,7 @@
       <c r="B21" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -3126,13 +3129,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>50</v>
       </c>
       <c r="B22" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>109</v>
       </c>
       <c r="D22" t="s">
@@ -3140,13 +3143,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>50</v>
       </c>
       <c r="B23" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>109</v>
       </c>
       <c r="D23" t="s">
@@ -3154,13 +3157,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>109</v>
       </c>
       <c r="D24" t="s">
@@ -3168,13 +3171,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>263</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>175</v>
       </c>
       <c r="D25" t="s">
@@ -3182,13 +3185,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>109</v>
       </c>
       <c r="D26" t="s">
@@ -3196,13 +3199,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>108</v>
       </c>
       <c r="D27" t="s">
@@ -3210,13 +3213,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>50</v>
       </c>
       <c r="B28" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>108</v>
       </c>
       <c r="D28" t="s">
@@ -3224,13 +3227,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>50</v>
       </c>
       <c r="B29" t="s">
         <v>532</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>108</v>
       </c>
       <c r="D29" t="s">
@@ -3238,13 +3241,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
         <v>50</v>
       </c>
       <c r="B30" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>109</v>
       </c>
       <c r="D30" t="s">
@@ -3252,13 +3255,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>50</v>
       </c>
       <c r="B31" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>109</v>
       </c>
       <c r="D31" t="s">
@@ -3266,13 +3269,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -3283,10 +3286,10 @@
       <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>109</v>
       </c>
       <c r="D33" t="s">
@@ -3297,10 +3300,10 @@
       <c r="A34" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>108</v>
       </c>
       <c r="D34" t="s">
@@ -3311,10 +3314,10 @@
       <c r="A35" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>108</v>
       </c>
       <c r="D35" t="s">
@@ -3328,7 +3331,7 @@
       <c r="B36" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>109</v>
       </c>
       <c r="D36" t="s">
@@ -3342,7 +3345,7 @@
       <c r="B37" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>175</v>
       </c>
       <c r="D37" t="s">
@@ -3356,7 +3359,7 @@
       <c r="B38" t="s">
         <v>289</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>108</v>
       </c>
       <c r="D38" t="s">
@@ -3370,7 +3373,7 @@
       <c r="B39" t="s">
         <v>426</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>175</v>
       </c>
       <c r="D39" t="s">
@@ -3612,13 +3615,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
         <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>108</v>
       </c>
       <c r="D16" t="s">
@@ -3626,13 +3629,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>180</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>108</v>
       </c>
       <c r="D17" t="s">
@@ -3640,13 +3643,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>546</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>270</v>
       </c>
       <c r="D18" t="s">
@@ -3654,13 +3657,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>547</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>270</v>
       </c>
       <c r="D19" t="s">
@@ -3668,13 +3671,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>548</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>270</v>
       </c>
       <c r="D20" t="s">
@@ -3682,13 +3685,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>549</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>109</v>
       </c>
       <c r="D21" t="s">
@@ -3696,13 +3699,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -3716,7 +3719,7 @@
       <c r="B23" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>108</v>
       </c>
       <c r="D23" t="s">
@@ -3730,7 +3733,7 @@
       <c r="B24" t="s">
         <v>556</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>108</v>
       </c>
       <c r="D24" t="s">
@@ -3744,7 +3747,7 @@
       <c r="B25" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -3758,7 +3761,7 @@
       <c r="B26" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>108</v>
       </c>
       <c r="D26" t="s">
@@ -3772,7 +3775,7 @@
       <c r="B27" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>108</v>
       </c>
       <c r="D27" t="s">
@@ -3786,7 +3789,7 @@
       <c r="B28" t="s">
         <v>558</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>108</v>
       </c>
       <c r="D28" t="s">
@@ -3800,7 +3803,7 @@
       <c r="B29" t="s">
         <v>559</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>108</v>
       </c>
       <c r="D29" t="s">
@@ -3814,7 +3817,7 @@
       <c r="B30" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -3822,13 +3825,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>56</v>
       </c>
       <c r="B31" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>108</v>
       </c>
       <c r="D31" t="s">
@@ -3836,13 +3839,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>56</v>
       </c>
       <c r="B32" t="s">
         <v>181</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>109</v>
       </c>
       <c r="D32" t="s">
@@ -3850,13 +3853,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="A33" t="s">
         <v>56</v>
       </c>
       <c r="B33" t="s">
         <v>182</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>108</v>
       </c>
       <c r="D33" t="s">
@@ -3864,13 +3867,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
+      <c r="A34" t="s">
         <v>56</v>
       </c>
       <c r="B34" t="s">
         <v>564</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>109</v>
       </c>
       <c r="D34" t="s">
@@ -3878,13 +3881,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
         <v>56</v>
       </c>
       <c r="B35" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>108</v>
       </c>
       <c r="D35" t="s">
@@ -3892,13 +3895,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>56</v>
       </c>
       <c r="B36" t="s">
         <v>351</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>108</v>
       </c>
       <c r="D36" t="s">
@@ -3906,13 +3909,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37" t="s">
         <v>183</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>108</v>
       </c>
       <c r="D37" t="s">
@@ -3920,13 +3923,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>56</v>
       </c>
       <c r="B38" t="s">
         <v>538</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>108</v>
       </c>
       <c r="D38" t="s">
@@ -3934,13 +3937,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>108</v>
       </c>
       <c r="D39" t="s">
@@ -3948,13 +3951,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="A40" t="s">
         <v>56</v>
       </c>
       <c r="B40" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>108</v>
       </c>
       <c r="D40" t="s">
@@ -3962,13 +3965,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
+      <c r="A41" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
         <v>531</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>270</v>
       </c>
       <c r="D41" t="s">
@@ -3976,13 +3979,13 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="A42" t="s">
         <v>56</v>
       </c>
       <c r="B42" t="s">
         <v>283</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>108</v>
       </c>
       <c r="D42" t="s">
@@ -3990,13 +3993,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+      <c r="A43" t="s">
         <v>56</v>
       </c>
       <c r="B43" t="s">
         <v>149</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>108</v>
       </c>
       <c r="D43" t="s">
@@ -4004,13 +4007,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+      <c r="A44" t="s">
         <v>56</v>
       </c>
       <c r="B44" t="s">
         <v>150</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>108</v>
       </c>
       <c r="D44" t="s">
@@ -4018,13 +4021,13 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+      <c r="A45" t="s">
         <v>56</v>
       </c>
       <c r="B45" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" t="s">
         <v>109</v>
       </c>
       <c r="D45" t="s">
@@ -4032,13 +4035,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+      <c r="A46" t="s">
         <v>56</v>
       </c>
       <c r="B46" t="s">
         <v>152</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" t="s">
         <v>109</v>
       </c>
       <c r="D46" t="s">
@@ -4046,13 +4049,13 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
+      <c r="A47" t="s">
         <v>56</v>
       </c>
       <c r="B47" t="s">
         <v>565</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" t="s">
         <v>108</v>
       </c>
       <c r="D47" t="s">
@@ -4060,13 +4063,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
+      <c r="A48" t="s">
         <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>566</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" t="s">
         <v>108</v>
       </c>
       <c r="D48" t="s">
@@ -4074,13 +4077,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
+      <c r="A49" t="s">
         <v>56</v>
       </c>
       <c r="B49" t="s">
         <v>567</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" t="s">
         <v>270</v>
       </c>
       <c r="D49" t="s">
@@ -4088,13 +4091,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
+      <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
         <v>252</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" t="s">
         <v>109</v>
       </c>
       <c r="D50" t="s">
@@ -4102,13 +4105,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -4119,10 +4122,10 @@
       <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" t="s">
         <v>108</v>
       </c>
       <c r="D52" t="s">
@@ -4133,10 +4136,10 @@
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" t="s">
         <v>556</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" t="s">
         <v>108</v>
       </c>
       <c r="D53" t="s">
@@ -4150,7 +4153,7 @@
       <c r="B54" t="s">
         <v>575</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" t="s">
         <v>108</v>
       </c>
       <c r="D54" t="s">
@@ -4164,7 +4167,7 @@
       <c r="B55" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" t="s">
         <v>108</v>
       </c>
       <c r="D55" t="s">
@@ -4178,7 +4181,7 @@
       <c r="B56" t="s">
         <v>188</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" t="s">
         <v>108</v>
       </c>
       <c r="D56" t="s">
@@ -4192,7 +4195,7 @@
       <c r="B57" t="s">
         <v>192</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>175</v>
       </c>
       <c r="D57" t="s">
@@ -4206,7 +4209,7 @@
       <c r="B58" t="s">
         <v>189</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" t="s">
         <v>109</v>
       </c>
       <c r="D58" t="s">
@@ -4220,7 +4223,7 @@
       <c r="B59" t="s">
         <v>190</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
         <v>270</v>
       </c>
       <c r="D59" t="s">
@@ -4234,7 +4237,7 @@
       <c r="B60" t="s">
         <v>289</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" t="s">
         <v>108</v>
       </c>
       <c r="D60" t="s">
@@ -4248,7 +4251,7 @@
       <c r="B61" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -4259,10 +4262,10 @@
       <c r="A62" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" t="s">
         <v>108</v>
       </c>
       <c r="D62" t="s">
@@ -4273,10 +4276,10 @@
       <c r="A63" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" t="s">
         <v>171</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" t="s">
         <v>108</v>
       </c>
       <c r="D63" t="s">
@@ -4290,7 +4293,7 @@
       <c r="B64" t="s">
         <v>578</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" t="s">
         <v>108</v>
       </c>
       <c r="D64" t="s">
@@ -4304,7 +4307,7 @@
       <c r="B65" t="s">
         <v>173</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" t="s">
         <v>108</v>
       </c>
       <c r="D65" t="s">
@@ -4318,7 +4321,7 @@
       <c r="B66" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -4326,13 +4329,13 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
+      <c r="A67" t="s">
         <v>59</v>
       </c>
       <c r="B67" t="s">
         <v>182</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" t="s">
         <v>108</v>
       </c>
       <c r="D67" t="s">
@@ -4340,13 +4343,13 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
+      <c r="A68" t="s">
         <v>59</v>
       </c>
       <c r="B68" t="s">
         <v>180</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" t="s">
         <v>108</v>
       </c>
       <c r="D68" t="s">
@@ -4354,44 +4357,44 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
+      <c r="A69" t="s">
         <v>59</v>
       </c>
       <c r="B69" t="s">
         <v>567</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" t="s">
         <v>270</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
+      <c r="A70" t="s">
         <v>59</v>
       </c>
       <c r="B70" t="s">
         <v>583</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" t="s">
         <v>270</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
+      <c r="A71" t="s">
         <v>59</v>
       </c>
       <c r="B71" t="s">
         <v>584</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" t="s">
         <v>270</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" t="s">
         <v>586</v>
       </c>
     </row>
@@ -7168,13 +7171,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
         <v>20</v>
       </c>
       <c r="B35" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>109</v>
       </c>
       <c r="D35" t="s">
@@ -7182,13 +7185,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>20</v>
       </c>
       <c r="B36" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>109</v>
       </c>
       <c r="D36" t="s">
@@ -7196,13 +7199,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+      <c r="A37" t="s">
         <v>20</v>
       </c>
       <c r="B37" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>109</v>
       </c>
       <c r="D37" t="s">
@@ -7210,13 +7213,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>20</v>
       </c>
       <c r="B38" t="s">
         <v>278</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>109</v>
       </c>
       <c r="D38" t="s">
@@ -7224,13 +7227,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>20</v>
       </c>
       <c r="B39" t="s">
         <v>279</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>109</v>
       </c>
       <c r="D39" t="s">
@@ -7238,13 +7241,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40" t="s">
         <v>344</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>109</v>
       </c>
       <c r="D40" t="s">
@@ -7252,7 +7255,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -7266,13 +7269,13 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="A42" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>109</v>
       </c>
       <c r="D42" t="s">
@@ -7280,10 +7283,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+      <c r="A43" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
         <v>171</v>
       </c>
       <c r="C43" t="s">
@@ -7294,7 +7297,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+      <c r="A44" t="s">
         <v>21</v>
       </c>
       <c r="B44" t="s">
@@ -7308,7 +7311,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+      <c r="A45" t="s">
         <v>21</v>
       </c>
       <c r="B45" t="s">
@@ -7322,7 +7325,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -7336,13 +7339,13 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
+      <c r="A47" t="s">
         <v>22</v>
       </c>
       <c r="B47" t="s">
         <v>180</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" t="s">
         <v>109</v>
       </c>
       <c r="D47" t="s">
@@ -7350,27 +7353,27 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
+      <c r="A48" t="s">
         <v>22</v>
       </c>
       <c r="B48" t="s">
         <v>181</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
+      <c r="A49" t="s">
         <v>22</v>
       </c>
       <c r="B49" t="s">
         <v>182</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" t="s">
         <v>109</v>
       </c>
       <c r="D49" t="s">
@@ -7378,13 +7381,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
+      <c r="A50" t="s">
         <v>22</v>
       </c>
       <c r="B50" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" t="s">
         <v>109</v>
       </c>
       <c r="D50" t="s">
@@ -7392,7 +7395,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
+      <c r="A51" t="s">
         <v>22</v>
       </c>
       <c r="B51" t="s">
@@ -7406,7 +7409,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+      <c r="A52" t="s">
         <v>22</v>
       </c>
       <c r="B52" t="s">
@@ -7420,13 +7423,13 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+      <c r="A53" t="s">
         <v>22</v>
       </c>
       <c r="B53" t="s">
         <v>348</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" t="s">
         <v>109</v>
       </c>
       <c r="D53" t="s">
@@ -7434,21 +7437,21 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
+      <c r="A54" t="s">
         <v>22</v>
       </c>
       <c r="B54" t="s">
         <v>183</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="C54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
+      <c r="A55" t="s">
         <v>22</v>
       </c>
       <c r="B55" t="s">
@@ -7462,7 +7465,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
+      <c r="A56" t="s">
         <v>22</v>
       </c>
       <c r="B56" t="s">
@@ -7476,13 +7479,13 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
+      <c r="A57" t="s">
         <v>22</v>
       </c>
       <c r="B57" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>109</v>
       </c>
       <c r="D57" t="s">
@@ -7490,13 +7493,13 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
+      <c r="A58" t="s">
         <v>22</v>
       </c>
       <c r="B58" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" t="s">
         <v>109</v>
       </c>
       <c r="D58" t="s">
@@ -7504,13 +7507,13 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
+      <c r="A59" t="s">
         <v>22</v>
       </c>
       <c r="B59" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
         <v>109</v>
       </c>
       <c r="D59" t="s">
@@ -7518,13 +7521,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -7532,13 +7535,13 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
+      <c r="A61" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" t="s">
         <v>139</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" t="s">
         <v>109</v>
       </c>
       <c r="D61" t="s">
@@ -7546,7 +7549,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
+      <c r="A62" t="s">
         <v>23</v>
       </c>
       <c r="B62" t="s">
@@ -7560,7 +7563,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
+      <c r="A63" t="s">
         <v>23</v>
       </c>
       <c r="B63" t="s">
@@ -7574,7 +7577,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
+      <c r="A64" t="s">
         <v>23</v>
       </c>
       <c r="B64" t="s">
@@ -7588,7 +7591,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
+      <c r="A65" t="s">
         <v>23</v>
       </c>
       <c r="B65" t="s">
@@ -7602,7 +7605,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
+      <c r="A66" t="s">
         <v>23</v>
       </c>
       <c r="B66" t="s">
@@ -7616,7 +7619,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
+      <c r="A67" t="s">
         <v>23</v>
       </c>
       <c r="B67" t="s">
@@ -7630,7 +7633,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
+      <c r="A68" t="s">
         <v>23</v>
       </c>
       <c r="B68" t="s">
@@ -7644,7 +7647,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
+      <c r="A69" t="s">
         <v>23</v>
       </c>
       <c r="B69" t="s">
@@ -7658,7 +7661,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -7672,13 +7675,13 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
+      <c r="A71" t="s">
         <v>24</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" t="s">
         <v>109</v>
       </c>
       <c r="D71" t="s">
@@ -7686,13 +7689,13 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -7700,13 +7703,13 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
+      <c r="A73" t="s">
         <v>25</v>
       </c>
       <c r="B73" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" t="s">
         <v>109</v>
       </c>
       <c r="D73" t="s">
@@ -7714,13 +7717,13 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
+      <c r="A74" t="s">
         <v>25</v>
       </c>
       <c r="B74" t="s">
         <v>171</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" t="s">
         <v>108</v>
       </c>
       <c r="D74" t="s">
@@ -7728,13 +7731,13 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
+      <c r="A75" t="s">
         <v>25</v>
       </c>
       <c r="B75" t="s">
         <v>361</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" t="s">
         <v>108</v>
       </c>
       <c r="D75" t="s">
@@ -7742,13 +7745,13 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
+      <c r="A76" t="s">
         <v>25</v>
       </c>
       <c r="B76" t="s">
         <v>362</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" t="s">
         <v>108</v>
       </c>
       <c r="D76" t="s">
@@ -7756,13 +7759,13 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
+      <c r="A77" t="s">
         <v>25</v>
       </c>
       <c r="B77" t="s">
         <v>363</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" t="s">
         <v>108</v>
       </c>
       <c r="D77" t="s">
@@ -7770,7 +7773,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
+      <c r="A78" t="s">
         <v>25</v>
       </c>
       <c r="B78" t="s">
@@ -8116,13 +8119,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>109</v>
       </c>
       <c r="D23" t="s">
@@ -8130,13 +8133,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>108</v>
       </c>
       <c r="D24" t="s">
@@ -8144,13 +8147,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>398</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>108</v>
       </c>
       <c r="D25" t="s">
@@ -8158,7 +8161,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
@@ -8172,7 +8175,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
@@ -8186,13 +8189,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -8200,41 +8203,41 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>109</v>
       </c>
       <c r="D31" t="s">
@@ -8242,7 +8245,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
@@ -8256,13 +8259,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="A33" t="s">
         <v>29</v>
       </c>
       <c r="B33" t="s">
         <v>183</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>109</v>
       </c>
       <c r="D33" t="s">
@@ -8270,7 +8273,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
       <c r="B34" t="s">
@@ -8284,7 +8287,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
         <v>29</v>
       </c>
       <c r="B35" t="s">
@@ -8298,13 +8301,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>29</v>
       </c>
       <c r="B36" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>109</v>
       </c>
       <c r="D36" t="s">
@@ -8312,13 +8315,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+      <c r="A37" t="s">
         <v>29</v>
       </c>
       <c r="B37" t="s">
         <v>401</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>109</v>
       </c>
       <c r="D37" t="s">
@@ -8326,13 +8329,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>29</v>
       </c>
       <c r="B38" t="s">
         <v>402</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>109</v>
       </c>
       <c r="D38" t="s">
@@ -8340,13 +8343,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>29</v>
       </c>
       <c r="B39" t="s">
         <v>403</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>109</v>
       </c>
       <c r="D39" t="s">
@@ -8354,13 +8357,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="A40" t="s">
         <v>29</v>
       </c>
       <c r="B40" t="s">
         <v>404</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>109</v>
       </c>
       <c r="D40" t="s">
@@ -8368,13 +8371,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
+      <c r="A41" t="s">
         <v>29</v>
       </c>
       <c r="B41" t="s">
         <v>405</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>109</v>
       </c>
       <c r="D41" t="s">
@@ -8382,13 +8385,13 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="A42" t="s">
         <v>29</v>
       </c>
       <c r="B42" t="s">
         <v>406</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>109</v>
       </c>
       <c r="D42" t="s">
@@ -8396,13 +8399,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+      <c r="A43" t="s">
         <v>29</v>
       </c>
       <c r="B43" t="s">
         <v>407</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>109</v>
       </c>
       <c r="D43" t="s">
@@ -8410,13 +8413,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+      <c r="A44" t="s">
         <v>29</v>
       </c>
       <c r="B44" t="s">
         <v>408</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>109</v>
       </c>
       <c r="D44" t="s">
@@ -8424,13 +8427,13 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+      <c r="A45" t="s">
         <v>29</v>
       </c>
       <c r="B45" t="s">
         <v>409</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" t="s">
         <v>109</v>
       </c>
       <c r="D45" t="s">
@@ -8438,13 +8441,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+      <c r="A46" t="s">
         <v>29</v>
       </c>
       <c r="B46" t="s">
         <v>410</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" t="s">
         <v>109</v>
       </c>
       <c r="D46" t="s">
@@ -8452,13 +8455,13 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
+      <c r="A47" t="s">
         <v>29</v>
       </c>
       <c r="B47" t="s">
         <v>411</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" t="s">
         <v>109</v>
       </c>
       <c r="D47" t="s">
@@ -8466,13 +8469,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -8480,13 +8483,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
+      <c r="A49" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" t="s">
         <v>109</v>
       </c>
       <c r="D49" t="s">
@@ -8494,13 +8497,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
+      <c r="A50" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" t="s">
         <v>108</v>
       </c>
       <c r="D50" t="s">
@@ -8508,13 +8511,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
+      <c r="A51" t="s">
         <v>30</v>
       </c>
       <c r="B51" t="s">
         <v>426</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" t="s">
         <v>175</v>
       </c>
       <c r="D51" t="s">
@@ -8522,13 +8525,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -8536,13 +8539,13 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+      <c r="A53" t="s">
         <v>31</v>
       </c>
       <c r="B53" t="s">
         <v>430</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" t="s">
         <v>175</v>
       </c>
       <c r="D53" t="s">
@@ -8550,13 +8553,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
+      <c r="A54" t="s">
         <v>31</v>
       </c>
       <c r="B54" t="s">
         <v>146</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" t="s">
         <v>108</v>
       </c>
       <c r="D54" t="s">
@@ -8564,13 +8567,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
+      <c r="A55" t="s">
         <v>31</v>
       </c>
       <c r="B55" t="s">
         <v>180</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" t="s">
         <v>109</v>
       </c>
       <c r="D55" t="s">
@@ -8578,13 +8581,13 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
+      <c r="A56" t="s">
         <v>31</v>
       </c>
       <c r="B56" t="s">
         <v>431</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" t="s">
         <v>109</v>
       </c>
       <c r="D56" t="s">
@@ -8592,13 +8595,13 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
+      <c r="A57" t="s">
         <v>31</v>
       </c>
       <c r="B57" t="s">
         <v>432</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>109</v>
       </c>
       <c r="D57" t="s">
@@ -8868,13 +8871,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>108</v>
       </c>
       <c r="D18" t="s">
@@ -8882,13 +8885,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>436</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>109</v>
       </c>
       <c r="D19" t="s">
@@ -8896,13 +8899,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>437</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>108</v>
       </c>
       <c r="D20" t="s">
@@ -8910,13 +8913,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>108</v>
       </c>
       <c r="D21" t="s">
@@ -8924,13 +8927,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>175</v>
       </c>
       <c r="D22" t="s">
@@ -8938,13 +8941,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>173</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>108</v>
       </c>
       <c r="D23" t="s">
@@ -8952,13 +8955,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -8966,13 +8969,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>108</v>
       </c>
       <c r="D25" t="s">
@@ -8980,13 +8983,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>436</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>109</v>
       </c>
       <c r="D26" t="s">
@@ -8994,13 +8997,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>437</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>108</v>
       </c>
       <c r="D27" t="s">
@@ -9008,13 +9011,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>108</v>
       </c>
       <c r="D28" t="s">
@@ -9022,13 +9025,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>108</v>
       </c>
       <c r="D29" t="s">
@@ -9036,13 +9039,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
         <v>192</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>175</v>
       </c>
       <c r="D30" t="s">
@@ -9050,13 +9053,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>451</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>270</v>
       </c>
       <c r="D31" t="s">
@@ -9064,13 +9067,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>270</v>
       </c>
       <c r="D32" t="s">
@@ -9078,13 +9081,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
         <v>452</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>109</v>
       </c>
       <c r="D33" t="s">
@@ -9092,13 +9095,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>357</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>108</v>
       </c>
       <c r="D34" t="s">
@@ -9106,13 +9109,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>191</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>108</v>
       </c>
       <c r="D35" t="s">
@@ -9120,13 +9123,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -9140,7 +9143,7 @@
       <c r="B37" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>108</v>
       </c>
       <c r="D37" t="s">
@@ -9154,7 +9157,7 @@
       <c r="B38" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>108</v>
       </c>
       <c r="D38" t="s">
@@ -9168,7 +9171,7 @@
       <c r="B39" t="s">
         <v>456</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>108</v>
       </c>
       <c r="D39" t="s">
@@ -9182,7 +9185,7 @@
       <c r="B40" t="s">
         <v>457</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>108</v>
       </c>
       <c r="D40" t="s">
@@ -9196,7 +9199,7 @@
       <c r="B41" t="s">
         <v>458</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>109</v>
       </c>
       <c r="D41" t="s">
@@ -9210,7 +9213,7 @@
       <c r="B42" t="s">
         <v>459</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>109</v>
       </c>
       <c r="D42" t="s">
@@ -9224,7 +9227,7 @@
       <c r="B43" t="s">
         <v>460</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>109</v>
       </c>
       <c r="D43" t="s">
@@ -9238,7 +9241,7 @@
       <c r="B44" t="s">
         <v>461</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>109</v>
       </c>
       <c r="D44" t="s">
@@ -9252,7 +9255,7 @@
       <c r="B45" t="s">
         <v>462</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" t="s">
         <v>108</v>
       </c>
       <c r="D45" t="s">
@@ -9266,7 +9269,7 @@
       <c r="B46" t="s">
         <v>463</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" t="s">
         <v>109</v>
       </c>
       <c r="D46" t="s">
@@ -9280,7 +9283,7 @@
       <c r="B47" t="s">
         <v>464</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" t="s">
         <v>109</v>
       </c>
       <c r="D47" t="s">
@@ -9294,7 +9297,7 @@
       <c r="B48" t="s">
         <v>465</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" t="s">
         <v>109</v>
       </c>
       <c r="D48" t="s">
@@ -9308,7 +9311,7 @@
       <c r="B49" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -9316,13 +9319,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
+      <c r="A50" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" t="s">
         <v>182</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" t="s">
         <v>108</v>
       </c>
       <c r="D50" t="s">
@@ -9330,13 +9333,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
+      <c r="A51" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" t="s">
         <v>478</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" t="s">
         <v>108</v>
       </c>
       <c r="D51" t="s">
@@ -9344,13 +9347,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+      <c r="A52" t="s">
         <v>37</v>
       </c>
       <c r="B52" t="s">
         <v>250</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" t="s">
         <v>109</v>
       </c>
       <c r="D52" t="s">
@@ -9358,13 +9361,13 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+      <c r="A53" t="s">
         <v>37</v>
       </c>
       <c r="B53" t="s">
         <v>479</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" t="s">
         <v>109</v>
       </c>
       <c r="D53" t="s">
@@ -9372,13 +9375,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
+      <c r="A54" t="s">
         <v>37</v>
       </c>
       <c r="B54" t="s">
         <v>480</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" t="s">
         <v>109</v>
       </c>
       <c r="D54" t="s">
@@ -9386,13 +9389,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
+      <c r="A55" t="s">
         <v>37</v>
       </c>
       <c r="B55" t="s">
         <v>249</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" t="s">
         <v>108</v>
       </c>
       <c r="D55" t="s">
@@ -9400,13 +9403,13 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -9414,13 +9417,13 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
+      <c r="A57" t="s">
         <v>38</v>
       </c>
       <c r="B57" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>108</v>
       </c>
       <c r="D57" t="s">
@@ -9428,13 +9431,13 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
+      <c r="A58" t="s">
         <v>38</v>
       </c>
       <c r="B58" t="s">
         <v>437</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" t="s">
         <v>108</v>
       </c>
       <c r="D58" t="s">
@@ -9442,13 +9445,13 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
+      <c r="A59" t="s">
         <v>38</v>
       </c>
       <c r="B59" t="s">
         <v>487</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
         <v>108</v>
       </c>
       <c r="D59" t="s">
@@ -9456,13 +9459,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
+      <c r="A60" t="s">
         <v>38</v>
       </c>
       <c r="B60" t="s">
         <v>488</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" t="s">
         <v>108</v>
       </c>
       <c r="D60" t="s">
@@ -9470,13 +9473,13 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
+      <c r="A61" t="s">
         <v>38</v>
       </c>
       <c r="B61" t="s">
         <v>489</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" t="s">
         <v>108</v>
       </c>
       <c r="D61" t="s">
@@ -9662,13 +9665,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>109</v>
       </c>
       <c r="D12" t="s">
@@ -9676,13 +9679,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>109</v>
       </c>
       <c r="D13" t="s">
@@ -9690,13 +9693,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>199</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>109</v>
       </c>
       <c r="D14" t="s">
@@ -9704,13 +9707,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>503</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>109</v>
       </c>
       <c r="D15" t="s">
@@ -9718,7 +9721,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -9735,10 +9738,10 @@
       <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>109</v>
       </c>
       <c r="D17" t="s">
@@ -9749,10 +9752,10 @@
       <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>108</v>
       </c>
       <c r="D18" t="s">
@@ -9763,10 +9766,10 @@
       <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>398</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>108</v>
       </c>
       <c r="D19" t="s">
@@ -9777,10 +9780,10 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>263</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>175</v>
       </c>
       <c r="D20" t="s">
@@ -9791,10 +9794,10 @@
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>450</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>108</v>
       </c>
       <c r="D21" t="s">
@@ -9805,10 +9808,10 @@
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -9819,10 +9822,10 @@
       <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>109</v>
       </c>
       <c r="D23" t="s">
@@ -9833,10 +9836,10 @@
       <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>108</v>
       </c>
       <c r="D24" t="s">
@@ -9847,10 +9850,10 @@
       <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>509</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>108</v>
       </c>
       <c r="D25" t="s">
@@ -9864,7 +9867,7 @@
       <c r="B26" t="s">
         <v>192</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>175</v>
       </c>
       <c r="D26" t="s">
@@ -9878,7 +9881,7 @@
       <c r="B27" t="s">
         <v>510</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>108</v>
       </c>
       <c r="D27" t="s">
@@ -9892,7 +9895,7 @@
       <c r="B28" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>270</v>
       </c>
       <c r="D28" t="s">
@@ -9906,7 +9909,7 @@
       <c r="B29" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>270</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -9920,7 +9923,7 @@
       <c r="B30" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>109</v>
       </c>
       <c r="D30" t="s">
@@ -9934,7 +9937,7 @@
       <c r="B31" t="s">
         <v>513</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>108</v>
       </c>
       <c r="D31" t="s">
@@ -9948,7 +9951,7 @@
       <c r="B32" t="s">
         <v>514</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>109</v>
       </c>
       <c r="D32" t="s">
@@ -9962,7 +9965,7 @@
       <c r="B33" t="s">
         <v>515</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>109</v>
       </c>
       <c r="D33" t="s">
@@ -9976,7 +9979,7 @@
       <c r="B34" t="s">
         <v>516</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>109</v>
       </c>
       <c r="D34" t="s">
@@ -9990,7 +9993,7 @@
       <c r="B35" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -9998,13 +10001,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>109</v>
       </c>
       <c r="D36" t="s">
@@ -10012,13 +10015,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -10026,13 +10029,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>109</v>
       </c>
       <c r="D38" t="s">
@@ -10040,13 +10043,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>46</v>
       </c>
       <c r="B39" t="s">
         <v>524</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>108</v>
       </c>
       <c r="D39" t="s">
@@ -10054,13 +10057,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>525</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>108</v>
       </c>
       <c r="D40" t="s">
@@ -10068,13 +10071,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
+      <c r="A41" t="s">
         <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>516</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>109</v>
       </c>
       <c r="D41" t="s">
@@ -10082,13 +10085,13 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="B42" t="s">
         <v>517</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>109</v>
       </c>
       <c r="D42" t="s">
@@ -10096,13 +10099,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+      <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>109</v>
       </c>
       <c r="D43" t="s">

--- a/data/Data Dictionary.xlsx
+++ b/data/Data Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Documents\personal projects\jds-mma-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F669F064-BDBD-4819-8275-6E7AC9CC0519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B344C47-5579-482C-BBC6-20A46C1EE44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2149,8 +2149,8 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2777,13 +2777,13 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>100</v>
       </c>
     </row>
